--- a/Проезд.xlsx
+++ b/Проезд.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15315" windowHeight="7485" tabRatio="587" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="15315" windowHeight="7485" tabRatio="587" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="210">
   <si>
     <t>Автобус</t>
   </si>
@@ -1288,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1481,6 +1481,9 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,7 +1529,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1832,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,10 +2149,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="18">
         <f>C9/12</f>
         <v>7800</v>
@@ -2157,14 +2217,14 @@
       <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -3952,1573 +4012,1572 @@
   </sheetPr>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="5" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="33" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="24">
+      <c r="B1" s="131"/>
+      <c r="C1" s="138">
         <v>1</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="139">
         <v>2</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="139">
         <v>3</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="139">
         <v>4</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="139">
         <v>5</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1" s="139">
         <v>6</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1" s="139">
         <v>7</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="139">
         <v>8</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="139">
         <v>9</v>
       </c>
-      <c r="L1" s="25">
+      <c r="L1" s="139">
         <v>10</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1" s="139">
         <v>11</v>
       </c>
-      <c r="N1" s="25">
+      <c r="N1" s="139">
         <v>12</v>
       </c>
-      <c r="O1" s="25">
+      <c r="O1" s="139">
         <v>13</v>
       </c>
-      <c r="P1" s="25">
+      <c r="P1" s="139">
         <v>14</v>
       </c>
-      <c r="Q1" s="25">
+      <c r="Q1" s="139">
         <v>15</v>
       </c>
-      <c r="R1" s="25">
+      <c r="R1" s="139">
         <v>16</v>
       </c>
-      <c r="S1" s="25">
+      <c r="S1" s="139">
         <v>17</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="139">
         <v>18</v>
       </c>
-      <c r="U1" s="25">
+      <c r="U1" s="139">
         <v>19</v>
       </c>
-      <c r="V1" s="25">
+      <c r="V1" s="139">
         <v>20</v>
       </c>
-      <c r="W1" s="25">
+      <c r="W1" s="139">
         <v>21</v>
       </c>
-      <c r="X1" s="25">
+      <c r="X1" s="139">
         <v>22</v>
       </c>
-      <c r="Y1" s="25">
+      <c r="Y1" s="139">
         <v>23</v>
       </c>
-      <c r="Z1" s="25">
+      <c r="Z1" s="139">
         <v>24</v>
       </c>
-      <c r="AA1" s="25">
+      <c r="AA1" s="139">
         <v>25</v>
       </c>
-      <c r="AB1" s="25">
+      <c r="AB1" s="139">
         <v>26</v>
       </c>
-      <c r="AC1" s="25">
+      <c r="AC1" s="139">
         <v>27</v>
       </c>
-      <c r="AD1" s="25">
+      <c r="AD1" s="139">
         <v>28</v>
       </c>
-      <c r="AE1" s="25">
+      <c r="AE1" s="139">
         <v>29</v>
       </c>
-      <c r="AF1" s="25">
+      <c r="AF1" s="139">
         <v>30</v>
       </c>
-      <c r="AG1" s="26">
+      <c r="AG1" s="140">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="27">
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="141">
         <v>200</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="142">
         <f>$C$2*D1</f>
         <v>400</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="142">
         <f t="shared" ref="E2:AG2" si="0">$C$2*E1</f>
         <v>600</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="142">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="142">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="142">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="142">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="142">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="142">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="142">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="142">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="142">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="142">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="142">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="142">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="142">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="142">
         <f t="shared" si="0"/>
         <v>3400</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="142">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="142">
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="142">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="142">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="X2" s="28">
+      <c r="X2" s="142">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Y2" s="142">
         <f t="shared" si="0"/>
         <v>4600</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="Z2" s="142">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="AA2" s="28">
+      <c r="AA2" s="142">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="AB2" s="28">
+      <c r="AB2" s="142">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="AC2" s="28">
+      <c r="AC2" s="142">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
-      <c r="AD2" s="28">
+      <c r="AD2" s="142">
         <f t="shared" si="0"/>
         <v>5600</v>
       </c>
-      <c r="AE2" s="28">
+      <c r="AE2" s="142">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="AF2" s="28">
+      <c r="AF2" s="142">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="AG2" s="29">
+      <c r="AG2" s="143">
         <f t="shared" si="0"/>
         <v>6200</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+    <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="138">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="140">
         <f>45+45</f>
         <v>90</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="144">
         <f>B3+C2</f>
         <v>290</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="124"/>
-    </row>
-    <row r="4" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="146"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+    </row>
+    <row r="4" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="148">
         <v>2</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="149">
         <f>$B$3*A4</f>
         <v>180</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="22">
+      <c r="C4" s="150"/>
+      <c r="D4" s="151">
         <f>$B4+D$2</f>
         <v>580</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="125"/>
-    </row>
-    <row r="5" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="152"/>
+      <c r="X4" s="152"/>
+      <c r="Y4" s="152"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="152"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="152"/>
+      <c r="AG4" s="153"/>
+    </row>
+    <row r="5" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="148">
         <v>3</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="149">
         <f t="shared" ref="B5:B33" si="1">$B$3*A5</f>
         <v>270</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="22">
+      <c r="C5" s="154"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="151">
         <f>$B5+E$2</f>
         <v>870</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="125"/>
-    </row>
-    <row r="6" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="153"/>
+    </row>
+    <row r="6" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="148">
         <v>4</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="149">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="22">
+      <c r="C6" s="154"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="151">
         <f>$B6+F$2</f>
         <v>1160</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="125"/>
-    </row>
-    <row r="7" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="152"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="153"/>
+    </row>
+    <row r="7" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="148">
         <v>5</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="149">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="22">
+      <c r="C7" s="154"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="151">
         <f>$B7+G$2</f>
         <v>1450</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="125"/>
-    </row>
-    <row r="8" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="153"/>
+    </row>
+    <row r="8" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="148">
         <v>6</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="149">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="22">
+      <c r="C8" s="154"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="151">
         <f>$B8+H$2</f>
         <v>1740</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="125"/>
-    </row>
-    <row r="9" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="153"/>
+    </row>
+    <row r="9" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="148">
         <v>7</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="149">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="22">
+      <c r="C9" s="154"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="151">
         <f>$B9+I$2</f>
         <v>2030</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="125"/>
-    </row>
-    <row r="10" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="153"/>
+    </row>
+    <row r="10" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="148">
         <v>8</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="149">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="22">
+      <c r="C10" s="154"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="151">
         <f>$B10+J$2</f>
         <v>2320</v>
       </c>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="125"/>
-    </row>
-    <row r="11" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="153"/>
+    </row>
+    <row r="11" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="148">
         <v>9</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="149">
         <f t="shared" si="1"/>
         <v>810</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="66">
+      <c r="C11" s="154"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="155">
         <f>$B11+K$2</f>
         <v>2610</v>
       </c>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="127"/>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="125"/>
-    </row>
-    <row r="12" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="152"/>
+      <c r="S11" s="152"/>
+      <c r="T11" s="152"/>
+      <c r="U11" s="152"/>
+      <c r="V11" s="152"/>
+      <c r="W11" s="152"/>
+      <c r="X11" s="152"/>
+      <c r="Y11" s="152"/>
+      <c r="Z11" s="152"/>
+      <c r="AA11" s="152"/>
+      <c r="AB11" s="152"/>
+      <c r="AC11" s="152"/>
+      <c r="AD11" s="152"/>
+      <c r="AE11" s="152"/>
+      <c r="AF11" s="152"/>
+      <c r="AG11" s="153"/>
+    </row>
+    <row r="12" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="148">
         <v>10</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="149">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="22">
+      <c r="C12" s="154"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="151">
         <f>$B12+L$2</f>
         <v>2900</v>
       </c>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="127"/>
-      <c r="AG12" s="125"/>
-    </row>
-    <row r="13" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="152"/>
+      <c r="AE12" s="152"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="153"/>
+    </row>
+    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="148">
         <v>11</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="149">
         <f t="shared" si="1"/>
         <v>990</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="22">
+      <c r="C13" s="154"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="151">
         <f>$B13+M$2</f>
         <v>3190</v>
       </c>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="125"/>
-    </row>
-    <row r="14" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="152"/>
+      <c r="AE13" s="152"/>
+      <c r="AF13" s="152"/>
+      <c r="AG13" s="153"/>
+    </row>
+    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="148">
         <v>12</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="149">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="22">
+      <c r="C14" s="154"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="151">
         <f>$B14+N$2</f>
         <v>3480</v>
       </c>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="125"/>
-    </row>
-    <row r="15" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="153"/>
+    </row>
+    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="148">
         <v>13</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="149">
         <f t="shared" si="1"/>
         <v>1170</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="22">
+      <c r="C15" s="154"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="151">
         <f>$B15+O$2</f>
         <v>3770</v>
       </c>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="127"/>
-      <c r="AG15" s="125"/>
-    </row>
-    <row r="16" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="152"/>
+      <c r="W15" s="152"/>
+      <c r="X15" s="152"/>
+      <c r="Y15" s="152"/>
+      <c r="Z15" s="152"/>
+      <c r="AA15" s="152"/>
+      <c r="AB15" s="152"/>
+      <c r="AC15" s="152"/>
+      <c r="AD15" s="152"/>
+      <c r="AE15" s="152"/>
+      <c r="AF15" s="152"/>
+      <c r="AG15" s="153"/>
+    </row>
+    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="148">
         <v>14</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="149">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="22">
+      <c r="C16" s="154"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="151">
         <f>$B16+P$2</f>
         <v>4060</v>
       </c>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="125"/>
-    </row>
-    <row r="17" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="152"/>
+      <c r="AC16" s="152"/>
+      <c r="AD16" s="152"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="152"/>
+      <c r="AG16" s="153"/>
+    </row>
+    <row r="17" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="148">
         <v>15</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="149">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="22">
+      <c r="C17" s="154"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="151">
         <f>$B17+Q$2</f>
         <v>4350</v>
       </c>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="125"/>
-    </row>
-    <row r="18" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="152"/>
+      <c r="AD17" s="152"/>
+      <c r="AE17" s="152"/>
+      <c r="AF17" s="152"/>
+      <c r="AG17" s="153"/>
+    </row>
+    <row r="18" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="148">
         <v>16</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="149">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="22">
+      <c r="C18" s="154"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="151">
         <f>$B18+R$2</f>
         <v>4640</v>
       </c>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="125"/>
-    </row>
-    <row r="19" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="S18" s="152"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="152"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="152"/>
+      <c r="AD18" s="152"/>
+      <c r="AE18" s="152"/>
+      <c r="AF18" s="152"/>
+      <c r="AG18" s="153"/>
+    </row>
+    <row r="19" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="148">
         <v>17</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="149">
         <f t="shared" si="1"/>
         <v>1530</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="22">
+      <c r="C19" s="154"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="151">
         <f>$B19+S$2</f>
         <v>4930</v>
       </c>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="125"/>
-    </row>
-    <row r="20" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="T19" s="152"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="152"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152"/>
+      <c r="Z19" s="152"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="152"/>
+      <c r="AC19" s="152"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="152"/>
+      <c r="AF19" s="152"/>
+      <c r="AG19" s="153"/>
+    </row>
+    <row r="20" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="148">
         <v>18</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="149">
         <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="22">
+      <c r="C20" s="154"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="151">
         <f>$B20+T$2</f>
         <v>5220</v>
       </c>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="125"/>
-    </row>
-    <row r="21" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="U20" s="152"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="152"/>
+      <c r="Y20" s="152"/>
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="152"/>
+      <c r="AC20" s="152"/>
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="152"/>
+      <c r="AF20" s="152"/>
+      <c r="AG20" s="153"/>
+    </row>
+    <row r="21" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="148">
         <v>19</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="149">
         <f t="shared" si="1"/>
         <v>1710</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="22">
+      <c r="C21" s="154"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="152"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="151">
         <f>$B21+U$2</f>
         <v>5510</v>
       </c>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="127"/>
-      <c r="AG21" s="125"/>
-    </row>
-    <row r="22" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="V21" s="152"/>
+      <c r="W21" s="152"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="152"/>
+      <c r="Z21" s="152"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="152"/>
+      <c r="AC21" s="152"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="152"/>
+      <c r="AF21" s="152"/>
+      <c r="AG21" s="153"/>
+    </row>
+    <row r="22" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="148">
         <v>20</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="149">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="22">
+      <c r="C22" s="154"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
+      <c r="S22" s="152"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="151">
         <f>$B22+V$2</f>
         <v>5800</v>
       </c>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="125"/>
-    </row>
-    <row r="23" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="W22" s="152"/>
+      <c r="X22" s="152"/>
+      <c r="Y22" s="152"/>
+      <c r="Z22" s="152"/>
+      <c r="AA22" s="152"/>
+      <c r="AB22" s="152"/>
+      <c r="AC22" s="152"/>
+      <c r="AD22" s="152"/>
+      <c r="AE22" s="152"/>
+      <c r="AF22" s="152"/>
+      <c r="AG22" s="153"/>
+    </row>
+    <row r="23" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="148">
         <v>21</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="149">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="22">
+      <c r="C23" s="154"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="151">
         <f>$B23+W$2</f>
         <v>6090</v>
       </c>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="127"/>
-      <c r="AG23" s="125"/>
-    </row>
-    <row r="24" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="X23" s="152"/>
+      <c r="Y23" s="152"/>
+      <c r="Z23" s="152"/>
+      <c r="AA23" s="152"/>
+      <c r="AB23" s="152"/>
+      <c r="AC23" s="152"/>
+      <c r="AD23" s="152"/>
+      <c r="AE23" s="152"/>
+      <c r="AF23" s="152"/>
+      <c r="AG23" s="153"/>
+    </row>
+    <row r="24" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="148">
         <v>22</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="149">
         <f t="shared" si="1"/>
         <v>1980</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="22">
+      <c r="C24" s="154"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="151">
         <f>$B24+X$2</f>
         <v>6380</v>
       </c>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="125"/>
-    </row>
-    <row r="25" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="152"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="152"/>
+      <c r="AC24" s="152"/>
+      <c r="AD24" s="152"/>
+      <c r="AE24" s="152"/>
+      <c r="AF24" s="152"/>
+      <c r="AG24" s="153"/>
+    </row>
+    <row r="25" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="148">
         <v>23</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="149">
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="22">
+      <c r="C25" s="154"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="152"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="151">
         <f>$B25+Y$2</f>
         <v>6670</v>
       </c>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="125"/>
-    </row>
-    <row r="26" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="Z25" s="152"/>
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="152"/>
+      <c r="AC25" s="152"/>
+      <c r="AD25" s="152"/>
+      <c r="AE25" s="152"/>
+      <c r="AF25" s="152"/>
+      <c r="AG25" s="153"/>
+    </row>
+    <row r="26" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="148">
         <v>24</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="149">
         <f t="shared" si="1"/>
         <v>2160</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="22">
+      <c r="C26" s="154"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="151">
         <f>$B26+Z$2</f>
         <v>6960</v>
       </c>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="125"/>
-    </row>
-    <row r="27" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="152"/>
+      <c r="AC26" s="152"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="152"/>
+      <c r="AF26" s="152"/>
+      <c r="AG26" s="153"/>
+    </row>
+    <row r="27" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="148">
         <v>25</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="149">
         <f t="shared" si="1"/>
         <v>2250</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="22">
+      <c r="C27" s="154"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="152"/>
+      <c r="W27" s="152"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="152"/>
+      <c r="Z27" s="152"/>
+      <c r="AA27" s="151">
         <f>$B27+AA$2</f>
         <v>7250</v>
       </c>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="127"/>
-      <c r="AG27" s="125"/>
-    </row>
-    <row r="28" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="AB27" s="152"/>
+      <c r="AC27" s="152"/>
+      <c r="AD27" s="152"/>
+      <c r="AE27" s="152"/>
+      <c r="AF27" s="152"/>
+      <c r="AG27" s="153"/>
+    </row>
+    <row r="28" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="148">
         <v>26</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="149">
         <f t="shared" si="1"/>
         <v>2340</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="22">
+      <c r="C28" s="154"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="152"/>
+      <c r="W28" s="152"/>
+      <c r="X28" s="152"/>
+      <c r="Y28" s="152"/>
+      <c r="Z28" s="152"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="151">
         <f>$B28+AB$2</f>
         <v>7540</v>
       </c>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="127"/>
-      <c r="AG28" s="125"/>
-    </row>
-    <row r="29" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="AC28" s="152"/>
+      <c r="AD28" s="152"/>
+      <c r="AE28" s="152"/>
+      <c r="AF28" s="152"/>
+      <c r="AG28" s="153"/>
+    </row>
+    <row r="29" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="148">
         <v>27</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="149">
         <f t="shared" si="1"/>
         <v>2430</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="22">
+      <c r="C29" s="154"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="152"/>
+      <c r="W29" s="152"/>
+      <c r="X29" s="152"/>
+      <c r="Y29" s="152"/>
+      <c r="Z29" s="152"/>
+      <c r="AA29" s="152"/>
+      <c r="AB29" s="152"/>
+      <c r="AC29" s="151">
         <f>$B29+AC$2</f>
         <v>7830</v>
       </c>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="127"/>
-      <c r="AF29" s="127"/>
-      <c r="AG29" s="125"/>
-    </row>
-    <row r="30" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="AD29" s="152"/>
+      <c r="AE29" s="152"/>
+      <c r="AF29" s="152"/>
+      <c r="AG29" s="153"/>
+    </row>
+    <row r="30" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="148">
         <v>28</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="149">
         <f t="shared" si="1"/>
         <v>2520</v>
       </c>
-      <c r="C30" s="128"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="22">
+      <c r="C30" s="154"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
+      <c r="W30" s="152"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="152"/>
+      <c r="Z30" s="152"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="152"/>
+      <c r="AC30" s="152"/>
+      <c r="AD30" s="151">
         <f>$B30+AD$2</f>
         <v>8120</v>
       </c>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="125"/>
-    </row>
-    <row r="31" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="AE30" s="152"/>
+      <c r="AF30" s="152"/>
+      <c r="AG30" s="153"/>
+    </row>
+    <row r="31" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="148">
         <v>29</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="149">
         <f t="shared" si="1"/>
         <v>2610</v>
       </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="22">
+      <c r="C31" s="154"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="152"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="152"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="152"/>
+      <c r="W31" s="152"/>
+      <c r="X31" s="152"/>
+      <c r="Y31" s="152"/>
+      <c r="Z31" s="152"/>
+      <c r="AA31" s="152"/>
+      <c r="AB31" s="152"/>
+      <c r="AC31" s="152"/>
+      <c r="AD31" s="152"/>
+      <c r="AE31" s="151">
         <f>$B31+AE$2</f>
         <v>8410</v>
       </c>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="125"/>
-    </row>
-    <row r="32" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="AF31" s="152"/>
+      <c r="AG31" s="153"/>
+    </row>
+    <row r="32" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="148">
         <v>30</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="149">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="22">
+      <c r="C32" s="154"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="152"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="152"/>
+      <c r="W32" s="152"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="152"/>
+      <c r="Z32" s="152"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="152"/>
+      <c r="AC32" s="152"/>
+      <c r="AD32" s="152"/>
+      <c r="AE32" s="152"/>
+      <c r="AF32" s="151">
         <f>$B32+AF$2</f>
         <v>8700</v>
       </c>
-      <c r="AG32" s="125"/>
-    </row>
-    <row r="33" spans="1:33" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+      <c r="AG32" s="153"/>
+    </row>
+    <row r="33" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="141">
         <v>31</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="143">
         <f t="shared" si="1"/>
         <v>2790</v>
       </c>
-      <c r="C33" s="133"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="134"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="134"/>
-      <c r="AF33" s="134"/>
-      <c r="AG33" s="29">
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="157"/>
+      <c r="U33" s="157"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="157"/>
+      <c r="X33" s="157"/>
+      <c r="Y33" s="157"/>
+      <c r="Z33" s="157"/>
+      <c r="AA33" s="157"/>
+      <c r="AB33" s="157"/>
+      <c r="AC33" s="157"/>
+      <c r="AD33" s="157"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="143">
         <f>$B33+AG$2</f>
         <v>8990</v>
       </c>
@@ -5615,10 +5674,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="130"/>
+      <c r="B1" s="131"/>
       <c r="C1" s="24">
         <v>1</v>
       </c>
@@ -5714,8 +5773,8 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
       <c r="C2" s="27">
         <v>200</v>
       </c>
@@ -5853,35 +5912,35 @@
         <v>364</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="124"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="125"/>
     </row>
     <row r="4" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
@@ -5896,35 +5955,35 @@
         <f>$B4+D$2</f>
         <v>728</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="125"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="126"/>
     </row>
     <row r="5" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
@@ -5934,40 +5993,40 @@
         <f t="shared" ref="B5:B33" si="1">$B$3*A5</f>
         <v>492</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="22">
         <f>$B5+E$2</f>
         <v>1092</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="125"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="126"/>
     </row>
     <row r="6" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
@@ -5977,40 +6036,40 @@
         <f t="shared" si="1"/>
         <v>656</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="22">
         <f>$B6+F$2</f>
         <v>1456</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="125"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="128"/>
+      <c r="AE6" s="128"/>
+      <c r="AF6" s="128"/>
+      <c r="AG6" s="126"/>
     </row>
     <row r="7" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
@@ -6020,40 +6079,40 @@
         <f t="shared" si="1"/>
         <v>820</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="22">
         <f>$B7+G$2</f>
         <v>1820</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="125"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="128"/>
+      <c r="AG7" s="126"/>
     </row>
     <row r="8" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
@@ -6063,40 +6122,40 @@
         <f t="shared" si="1"/>
         <v>984</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
       <c r="H8" s="22">
         <f>$B8+H$2</f>
         <v>2184</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="125"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="128"/>
+      <c r="AF8" s="128"/>
+      <c r="AG8" s="126"/>
     </row>
     <row r="9" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
@@ -6106,40 +6165,40 @@
         <f t="shared" si="1"/>
         <v>1148</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
       <c r="I9" s="22">
         <f>$B9+I$2</f>
         <v>2548</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="125"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="126"/>
     </row>
     <row r="10" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -6149,40 +6208,40 @@
         <f t="shared" si="1"/>
         <v>1312</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="22">
         <f>$B10+J$2</f>
         <v>2912</v>
       </c>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="125"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="126"/>
     </row>
     <row r="11" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
@@ -6192,40 +6251,40 @@
         <f t="shared" si="1"/>
         <v>1476</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="66">
         <f>$B11+K$2</f>
         <v>3276</v>
       </c>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="127"/>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="125"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="126"/>
     </row>
     <row r="12" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
@@ -6235,40 +6294,40 @@
         <f t="shared" si="1"/>
         <v>1640</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
       <c r="L12" s="22">
         <f>$B12+L$2</f>
         <v>3640</v>
       </c>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="127"/>
-      <c r="AG12" s="125"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="126"/>
     </row>
     <row r="13" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
@@ -6278,40 +6337,40 @@
         <f t="shared" si="1"/>
         <v>1804</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
       <c r="M13" s="22">
         <f>$B13+M$2</f>
         <v>4004</v>
       </c>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="125"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="126"/>
     </row>
     <row r="14" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
@@ -6321,40 +6380,40 @@
         <f t="shared" si="1"/>
         <v>1968</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
       <c r="N14" s="22">
         <f>$B14+N$2</f>
         <v>4368</v>
       </c>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="125"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
+      <c r="AD14" s="128"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="126"/>
     </row>
     <row r="15" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
@@ -6364,40 +6423,40 @@
         <f t="shared" si="1"/>
         <v>2132</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
       <c r="O15" s="22">
         <f>$B15+O$2</f>
         <v>4732</v>
       </c>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="127"/>
-      <c r="AG15" s="125"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="126"/>
     </row>
     <row r="16" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
@@ -6407,40 +6466,40 @@
         <f t="shared" si="1"/>
         <v>2296</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
       <c r="P16" s="22">
         <f>$B16+P$2</f>
         <v>5096</v>
       </c>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="125"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="126"/>
     </row>
     <row r="17" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
@@ -6450,40 +6509,40 @@
         <f t="shared" si="1"/>
         <v>2460</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
       <c r="Q17" s="22">
         <f>$B17+Q$2</f>
         <v>5460</v>
       </c>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="125"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="126"/>
     </row>
     <row r="18" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
@@ -6493,40 +6552,40 @@
         <f t="shared" si="1"/>
         <v>2624</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
       <c r="R18" s="22">
         <f>$B18+R$2</f>
         <v>5824</v>
       </c>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="125"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="126"/>
     </row>
     <row r="19" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
@@ -6536,40 +6595,40 @@
         <f t="shared" si="1"/>
         <v>2788</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
       <c r="S19" s="22">
         <f>$B19+S$2</f>
         <v>6188</v>
       </c>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="125"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="126"/>
     </row>
     <row r="20" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
@@ -6579,40 +6638,40 @@
         <f t="shared" si="1"/>
         <v>2952</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
       <c r="T20" s="22">
         <f>$B20+T$2</f>
         <v>6552</v>
       </c>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="125"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="126"/>
     </row>
     <row r="21" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
@@ -6622,40 +6681,40 @@
         <f t="shared" si="1"/>
         <v>3116</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
       <c r="U21" s="22">
         <f>$B21+U$2</f>
         <v>6916</v>
       </c>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="127"/>
-      <c r="AG21" s="125"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="126"/>
     </row>
     <row r="22" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
@@ -6665,40 +6724,40 @@
         <f t="shared" si="1"/>
         <v>3280</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
       <c r="V22" s="22">
         <f>$B22+V$2</f>
         <v>7280</v>
       </c>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="125"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="126"/>
     </row>
     <row r="23" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
@@ -6708,40 +6767,40 @@
         <f t="shared" si="1"/>
         <v>3444</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
       <c r="W23" s="22">
         <f>$B23+W$2</f>
         <v>7644</v>
       </c>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="127"/>
-      <c r="AG23" s="125"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="126"/>
     </row>
     <row r="24" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
@@ -6751,40 +6810,40 @@
         <f t="shared" si="1"/>
         <v>3608</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
       <c r="X24" s="22">
         <f>$B24+X$2</f>
         <v>8008</v>
       </c>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="125"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="126"/>
     </row>
     <row r="25" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
@@ -6794,40 +6853,40 @@
         <f t="shared" si="1"/>
         <v>3772</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
       <c r="Y25" s="22">
         <f>$B25+Y$2</f>
         <v>8372</v>
       </c>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="125"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="126"/>
     </row>
     <row r="26" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
@@ -6837,40 +6896,40 @@
         <f t="shared" si="1"/>
         <v>3936</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
       <c r="Z26" s="22">
         <f>$B26+Z$2</f>
         <v>8736</v>
       </c>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="125"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="126"/>
     </row>
     <row r="27" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
@@ -6880,40 +6939,40 @@
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
       <c r="AA27" s="22">
         <f>$B27+AA$2</f>
         <v>9100</v>
       </c>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="127"/>
-      <c r="AG27" s="125"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="126"/>
     </row>
     <row r="28" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
@@ -6923,40 +6982,40 @@
         <f t="shared" si="1"/>
         <v>4264</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
       <c r="AB28" s="22">
         <f>$B28+AB$2</f>
         <v>9464</v>
       </c>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="127"/>
-      <c r="AG28" s="125"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="126"/>
     </row>
     <row r="29" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
@@ -6966,40 +7025,40 @@
         <f t="shared" si="1"/>
         <v>4428</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
       <c r="AC29" s="22">
         <f>$B29+AC$2</f>
         <v>9828</v>
       </c>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="127"/>
-      <c r="AF29" s="127"/>
-      <c r="AG29" s="125"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="126"/>
     </row>
     <row r="30" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
@@ -7009,40 +7068,40 @@
         <f t="shared" si="1"/>
         <v>4592</v>
       </c>
-      <c r="C30" s="128"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
       <c r="AD30" s="22">
         <f>$B30+AD$2</f>
         <v>10192</v>
       </c>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="125"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="126"/>
     </row>
     <row r="31" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
@@ -7052,40 +7111,40 @@
         <f t="shared" si="1"/>
         <v>4756</v>
       </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
       <c r="AE31" s="22">
         <f>$B31+AE$2</f>
         <v>10556</v>
       </c>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="125"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="126"/>
     </row>
     <row r="32" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
@@ -7095,40 +7154,40 @@
         <f t="shared" si="1"/>
         <v>4920</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="128"/>
       <c r="AF32" s="22">
         <f>$B32+AF$2</f>
         <v>10920</v>
       </c>
-      <c r="AG32" s="125"/>
+      <c r="AG32" s="126"/>
     </row>
     <row r="33" spans="1:33" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
@@ -7138,36 +7197,36 @@
         <f t="shared" si="1"/>
         <v>5084</v>
       </c>
-      <c r="C33" s="133"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="134"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="134"/>
-      <c r="AF33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="135"/>
+      <c r="AF33" s="135"/>
       <c r="AG33" s="29">
         <f>$B33+AG$2</f>
         <v>11284</v>
@@ -7272,10 +7331,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="130"/>
+      <c r="B1" s="131"/>
       <c r="C1" s="24">
         <v>1</v>
       </c>
@@ -7401,8 +7460,8 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
       <c r="C2" s="27">
         <v>150</v>
       </c>
@@ -7570,35 +7629,35 @@
         <v>364</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="135"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="136"/>
       <c r="AH3" s="1">
         <f>$AH$2*A3</f>
         <v>45</v>
@@ -7653,35 +7712,35 @@
         <f>$B4+D$2</f>
         <v>728</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="136"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="137"/>
       <c r="AH4" s="1">
         <f>$AH$2*A4</f>
         <v>90</v>
@@ -7731,40 +7790,40 @@
         <f t="shared" ref="B5:B33" si="10">$B$3*A5</f>
         <v>642</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="22">
         <f>$B5+E$2</f>
         <v>1092</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="136"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="137"/>
       <c r="AH5" s="1">
         <f t="shared" ref="AH5:AH33" si="11">$AH$2*A5</f>
         <v>135</v>
@@ -7814,40 +7873,40 @@
         <f t="shared" si="10"/>
         <v>856</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="22">
         <f>$B6+F$2</f>
         <v>1456</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="136"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="128"/>
+      <c r="AE6" s="128"/>
+      <c r="AF6" s="128"/>
+      <c r="AG6" s="137"/>
       <c r="AH6" s="1">
         <f t="shared" si="11"/>
         <v>180</v>
@@ -7897,40 +7956,40 @@
         <f t="shared" si="10"/>
         <v>1070</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="22">
         <f>$B7+G$2</f>
         <v>1820</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="136"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="128"/>
+      <c r="AG7" s="137"/>
       <c r="AH7" s="1">
         <f t="shared" si="11"/>
         <v>225</v>
@@ -7980,40 +8039,40 @@
         <f t="shared" si="10"/>
         <v>1284</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
       <c r="H8" s="22">
         <f>$B8+H$2</f>
         <v>2184</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="136"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="128"/>
+      <c r="AF8" s="128"/>
+      <c r="AG8" s="137"/>
       <c r="AH8" s="1">
         <f t="shared" si="11"/>
         <v>270</v>
@@ -8063,40 +8122,40 @@
         <f t="shared" si="10"/>
         <v>1498</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
       <c r="I9" s="22">
         <f>$B9+I$2</f>
         <v>2548</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="136"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="137"/>
       <c r="AH9" s="1">
         <f t="shared" si="11"/>
         <v>315</v>
@@ -8146,40 +8205,40 @@
         <f t="shared" si="10"/>
         <v>1712</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="22">
         <f>$B10+J$2</f>
         <v>2912</v>
       </c>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="136"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="137"/>
       <c r="AH10" s="1">
         <f t="shared" si="11"/>
         <v>360</v>
@@ -8229,40 +8288,40 @@
         <f t="shared" si="10"/>
         <v>1926</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="106">
         <f>$B11+K$2</f>
         <v>3276</v>
       </c>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="127"/>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="136"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="137"/>
       <c r="AH11" s="1">
         <f t="shared" si="11"/>
         <v>405</v>
@@ -8312,40 +8371,40 @@
         <f t="shared" si="10"/>
         <v>2140</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
       <c r="L12" s="22">
         <f>$B12+L$2</f>
         <v>3640</v>
       </c>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="127"/>
-      <c r="AG12" s="136"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="137"/>
       <c r="AH12" s="1">
         <f t="shared" si="11"/>
         <v>450</v>
@@ -8395,40 +8454,40 @@
         <f t="shared" si="10"/>
         <v>2354</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
       <c r="M13" s="22">
         <f>$B13+M$2</f>
         <v>4004</v>
       </c>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="136"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="137"/>
       <c r="AH13" s="1">
         <f t="shared" si="11"/>
         <v>495</v>
@@ -8478,40 +8537,40 @@
         <f t="shared" si="10"/>
         <v>2568</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
       <c r="N14" s="22">
         <f>$B14+N$2</f>
         <v>4368</v>
       </c>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="136"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
+      <c r="AD14" s="128"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="137"/>
       <c r="AH14" s="1">
         <f t="shared" si="11"/>
         <v>540</v>
@@ -8561,40 +8620,40 @@
         <f t="shared" si="10"/>
         <v>2782</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
       <c r="O15" s="22">
         <f>$B15+O$2</f>
         <v>4732</v>
       </c>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="127"/>
-      <c r="AG15" s="136"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="137"/>
       <c r="AH15" s="1">
         <f t="shared" si="11"/>
         <v>585</v>
@@ -8644,40 +8703,40 @@
         <f t="shared" si="10"/>
         <v>2996</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
       <c r="P16" s="22">
         <f>$B16+P$2</f>
         <v>5096</v>
       </c>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="136"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="137"/>
       <c r="AH16" s="1">
         <f t="shared" si="11"/>
         <v>630</v>
@@ -8727,40 +8786,40 @@
         <f t="shared" si="10"/>
         <v>3210</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
       <c r="Q17" s="22">
         <f>$B17+Q$2</f>
         <v>5460</v>
       </c>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="136"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="137"/>
       <c r="AH17" s="1">
         <f t="shared" si="11"/>
         <v>675</v>
@@ -8810,40 +8869,40 @@
         <f t="shared" si="10"/>
         <v>3424</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
       <c r="R18" s="22">
         <f>$B18+R$2</f>
         <v>5824</v>
       </c>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="136"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="137"/>
       <c r="AH18" s="1">
         <f t="shared" si="11"/>
         <v>720</v>
@@ -8893,40 +8952,40 @@
         <f t="shared" si="10"/>
         <v>3638</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
       <c r="S19" s="22">
         <f>$B19+S$2</f>
         <v>6188</v>
       </c>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="136"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="137"/>
       <c r="AH19" s="1">
         <f t="shared" si="11"/>
         <v>765</v>
@@ -8976,40 +9035,40 @@
         <f t="shared" si="10"/>
         <v>3852</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
       <c r="T20" s="22">
         <f>$B20+T$2</f>
         <v>6552</v>
       </c>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="136"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="137"/>
       <c r="AH20" s="1">
         <f t="shared" si="11"/>
         <v>810</v>
@@ -9059,40 +9118,40 @@
         <f t="shared" si="10"/>
         <v>4066</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
       <c r="U21" s="22">
         <f>$B21+U$2</f>
         <v>6916</v>
       </c>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="127"/>
-      <c r="AG21" s="136"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="137"/>
       <c r="AH21" s="1">
         <f t="shared" si="11"/>
         <v>855</v>
@@ -9142,40 +9201,40 @@
         <f t="shared" si="10"/>
         <v>4280</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
       <c r="V22" s="22">
         <f>$B22+V$2</f>
         <v>7280</v>
       </c>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="136"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="137"/>
       <c r="AH22" s="1">
         <f t="shared" si="11"/>
         <v>900</v>
@@ -9225,40 +9284,40 @@
         <f t="shared" si="10"/>
         <v>4494</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
       <c r="W23" s="22">
         <f>$B23+W$2</f>
         <v>7644</v>
       </c>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="127"/>
-      <c r="AG23" s="136"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="137"/>
       <c r="AH23" s="1">
         <f t="shared" si="11"/>
         <v>945</v>
@@ -9308,40 +9367,40 @@
         <f t="shared" si="10"/>
         <v>4708</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
       <c r="X24" s="22">
         <f>$B24+X$2</f>
         <v>8008</v>
       </c>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="136"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="137"/>
       <c r="AH24" s="1">
         <f t="shared" si="11"/>
         <v>990</v>
@@ -9391,40 +9450,40 @@
         <f t="shared" si="10"/>
         <v>4922</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
       <c r="Y25" s="22">
         <f>$B25+Y$2</f>
         <v>8372</v>
       </c>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="136"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="137"/>
       <c r="AH25" s="1">
         <f t="shared" si="11"/>
         <v>1035</v>
@@ -9474,40 +9533,40 @@
         <f t="shared" si="10"/>
         <v>5136</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
       <c r="Z26" s="22">
         <f>$B26+Z$2</f>
         <v>8736</v>
       </c>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="136"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="137"/>
       <c r="AH26" s="1">
         <f t="shared" si="11"/>
         <v>1080</v>
@@ -9557,40 +9616,40 @@
         <f t="shared" si="10"/>
         <v>5350</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
       <c r="AA27" s="22">
         <f>$B27+AA$2</f>
         <v>9100</v>
       </c>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="127"/>
-      <c r="AG27" s="136"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="137"/>
       <c r="AH27" s="1">
         <f t="shared" si="11"/>
         <v>1125</v>
@@ -9640,40 +9699,40 @@
         <f t="shared" si="10"/>
         <v>5564</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
       <c r="AB28" s="22">
         <f>$B28+AB$2</f>
         <v>9464</v>
       </c>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="127"/>
-      <c r="AG28" s="136"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="137"/>
       <c r="AH28" s="1">
         <f t="shared" si="11"/>
         <v>1170</v>
@@ -9723,40 +9782,40 @@
         <f t="shared" si="10"/>
         <v>5778</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
       <c r="AC29" s="22">
         <f>$B29+AC$2</f>
         <v>9828</v>
       </c>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="127"/>
-      <c r="AF29" s="127"/>
-      <c r="AG29" s="136"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="137"/>
       <c r="AH29" s="1">
         <f t="shared" si="11"/>
         <v>1215</v>
@@ -9806,40 +9865,40 @@
         <f t="shared" si="10"/>
         <v>5992</v>
       </c>
-      <c r="C30" s="128"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
       <c r="AD30" s="22">
         <f>$B30+AD$2</f>
         <v>10192</v>
       </c>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="136"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="137"/>
       <c r="AH30" s="1">
         <f t="shared" si="11"/>
         <v>1260</v>
@@ -9889,40 +9948,40 @@
         <f t="shared" si="10"/>
         <v>6206</v>
       </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
       <c r="AE31" s="22">
         <f>$B31+AE$2</f>
         <v>10556</v>
       </c>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="136"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="137"/>
       <c r="AH31" s="1">
         <f t="shared" si="11"/>
         <v>1305</v>
@@ -9972,40 +10031,40 @@
         <f t="shared" si="10"/>
         <v>6420</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="128"/>
       <c r="AF32" s="22">
         <f>$B32+AF$2</f>
         <v>10920</v>
       </c>
-      <c r="AG32" s="136"/>
+      <c r="AG32" s="137"/>
       <c r="AH32" s="1">
         <f t="shared" si="11"/>
         <v>1350</v>
@@ -10055,36 +10114,36 @@
         <f t="shared" si="10"/>
         <v>6634</v>
       </c>
-      <c r="C33" s="133"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="134"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="134"/>
-      <c r="AF33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="135"/>
+      <c r="AF33" s="135"/>
       <c r="AG33" s="121">
         <f>$B33+AG$2</f>
         <v>11284</v>
@@ -10201,8 +10260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11144,6 +11203,48 @@
         <v>55</v>
       </c>
     </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C72" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D73" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D74" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D75" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C77" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="61" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E82" s="61" t="s">
         <v>91</v>
@@ -11240,8 +11341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11295,10 +11396,10 @@
       <c r="B2" s="45">
         <v>0</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="122" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="45" t="s">
@@ -11326,10 +11427,10 @@
       <c r="B3" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="122" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="45" t="s">
@@ -11357,19 +11458,19 @@
       <c r="B4" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="122" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="45" t="s">
@@ -11388,13 +11489,13 @@
       <c r="B5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="122" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="122" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="45" t="s">
@@ -11419,7 +11520,7 @@
       <c r="B6" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="122" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -11431,7 +11532,7 @@
       <c r="F6" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G6" s="122" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="45" t="s">
@@ -11450,7 +11551,7 @@
       <c r="B7" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="45" t="s">
@@ -11459,7 +11560,7 @@
       <c r="E7" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="122" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="45" t="s">
@@ -11481,7 +11582,7 @@
       <c r="B8" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="122" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="45" t="s">
@@ -11511,7 +11612,7 @@
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="122" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="48"/>
@@ -11528,7 +11629,7 @@
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="137" t="s">
+      <c r="H10" s="122" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="48"/>
@@ -11549,7 +11650,7 @@
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
-      <c r="J11" s="137" t="s">
+      <c r="J11" s="122" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="48"/>
@@ -11569,7 +11670,7 @@
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
-      <c r="K12" s="137" t="s">
+      <c r="K12" s="122" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13843,7 +13944,7 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
